--- a/data/testing/PyNeapple_test_results.xlsx
+++ b/data/testing/PyNeapple_test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\Pyneapple\data\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89908964-405D-472A-955C-A4AA84BEB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD97BE-BDEF-4A60-8FAC-CE36135BD22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F32" sqref="F32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1425,29 +1425,29 @@
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <f>$L$4/absolut!D22*100</f>
-        <v>133.87060067738523</v>
+        <f>$L$22/absolut!D22*100</f>
+        <v>66.935300338692613</v>
       </c>
       <c r="E22" s="4">
-        <f>$M$4/absolut!E22*100</f>
-        <v>37.443305780202493</v>
+        <f>$M$22/absolut!E22*100</f>
+        <v>89.863933872485973</v>
       </c>
       <c r="F22" s="4">
-        <f>$L$4/absolut!F22*100</f>
-        <v>149.37523806678567</v>
+        <f>$L$22/absolut!F22*100</f>
+        <v>74.687619033392835</v>
       </c>
       <c r="G22" s="4">
-        <f>$M$4/absolut!G22*100</f>
-        <v>39.89420694625165</v>
+        <f>$M$22/absolut!G22*100</f>
+        <v>95.746096671003954</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
-        <f>$L$4/absolut!I22*100</f>
-        <v>228.49329692064154</v>
+        <f>$L$22/absolut!I22*100</f>
+        <v>114.24664846032077</v>
       </c>
       <c r="J22" s="4">
-        <f>$M$4/absolut!J22*100</f>
-        <v>45.43426525069264</v>
+        <f>$M$22/absolut!J22*100</f>
+        <v>109.04223660166232</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" t="s">
@@ -1465,29 +1465,29 @@
         <v>2</v>
       </c>
       <c r="D23" s="4">
-        <f>$L$5/absolut!D23*100</f>
-        <v>44.6769347027452</v>
+        <f>$L$23/absolut!D23*100</f>
+        <v>38.294515459495884</v>
       </c>
       <c r="E23" s="4">
-        <f>$M$5/absolut!E23*100</f>
-        <v>271.56133647282377</v>
+        <f>$M$23/absolut!E23*100</f>
+        <v>108.62453458912951</v>
       </c>
       <c r="F23" s="4">
-        <f>$L$5/absolut!F23*100</f>
-        <v>65.227438760753216</v>
+        <f>$L$23/absolut!F23*100</f>
+        <v>55.909233223502753</v>
       </c>
       <c r="G23" s="4">
-        <f>$M$5/absolut!G23*100</f>
-        <v>352.01335210112074</v>
+        <f>$M$23/absolut!G23*100</f>
+        <v>140.80534084044828</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="4">
-        <f>$L$5/absolut!I23*100</f>
-        <v>117.61085839897953</v>
+        <f>$L$23/absolut!I23*100</f>
+        <v>100.80930719912531</v>
       </c>
       <c r="J23" s="4">
-        <f>$M$5/absolut!J23*100</f>
-        <v>214.47997186022766</v>
+        <f>$M$23/absolut!J23*100</f>
+        <v>85.791988744091057</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" t="s">
@@ -1505,29 +1505,29 @@
         <v>3</v>
       </c>
       <c r="D24" s="4">
-        <f>$L$6/absolut!D24*100</f>
-        <v>170.58148327764133</v>
+        <f>$L$24/absolut!D24*100</f>
+        <v>140.72972370405409</v>
       </c>
       <c r="E24" s="4">
-        <f>$M$6/absolut!E24*100</f>
-        <v>54.508846404209486</v>
+        <f>$M$24/absolut!E24*100</f>
+        <v>109.01769280841897</v>
       </c>
       <c r="F24" s="4">
-        <f>$L$6/absolut!F24*100</f>
-        <v>258.43626419008922</v>
+        <f>$L$24/absolut!F24*100</f>
+        <v>213.20991795682355</v>
       </c>
       <c r="G24" s="4">
-        <f>$M$6/absolut!G24*100</f>
-        <v>31.194921466785207</v>
+        <f>$M$24/absolut!G24*100</f>
+        <v>62.389842933570414</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="4">
-        <f>$L$6/absolut!I24*100</f>
-        <v>1.1024750291541944E-8</v>
+        <f>$L$24/absolut!I24*100</f>
+        <v>90.954189905221028</v>
       </c>
       <c r="J24" s="4">
-        <f>$M$6/absolut!J24*100</f>
-        <v>49.964275542986769</v>
+        <f>$M$24/absolut!J24*100</f>
+        <v>99.928551085973538</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" t="s">
@@ -1573,20 +1573,20 @@
         <v>1</v>
       </c>
       <c r="D26" s="4">
-        <f>$L$4/absolut!D26*100</f>
-        <v>325.36037728789353</v>
+        <f>$L$22/absolut!D26*100</f>
+        <v>162.68018864394676</v>
       </c>
       <c r="E26" s="4">
-        <f>$M$4/absolut!E26*100</f>
-        <v>58.390138568907687</v>
+        <f>$M$22/absolut!E26*100</f>
+        <v>140.13633256537844</v>
       </c>
       <c r="F26" s="4">
-        <f>$L$4/absolut!F26*100</f>
-        <v>167.25918232003539</v>
+        <f>$L$22/absolut!F26*100</f>
+        <v>83.629591160017696</v>
       </c>
       <c r="G26" s="4">
-        <f>$M$4/absolut!G26*100</f>
-        <v>38.4553678540505</v>
+        <f>$M$22/absolut!G26*100</f>
+        <v>92.292882849721195</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1603,20 +1603,20 @@
         <v>2</v>
       </c>
       <c r="D27" s="4">
-        <f>$L$5/absolut!D27*100</f>
-        <v>152.41363318175434</v>
+        <f>$L$23/absolut!D27*100</f>
+        <v>130.6402570129323</v>
       </c>
       <c r="E27" s="4">
-        <f>$M$5/absolut!E27*100</f>
-        <v>157.88911598957603</v>
+        <f>$M$23/absolut!E27*100</f>
+        <v>63.155646395830409</v>
       </c>
       <c r="F27" s="4">
-        <f>$L$5/absolut!F27*100</f>
-        <v>64.462325270262895</v>
+        <f>$L$23/absolut!F27*100</f>
+        <v>55.253421660225342</v>
       </c>
       <c r="G27" s="4">
-        <f>$M$5/absolut!G27*100</f>
-        <v>504.6970471858092</v>
+        <f>$M$23/absolut!G27*100</f>
+        <v>201.87881887432368</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1633,20 +1633,20 @@
         <v>3</v>
       </c>
       <c r="D28" s="4">
-        <f>$L$6/absolut!D28*100</f>
-        <v>256.84832769778143</v>
+        <f>$L$24/absolut!D28*100</f>
+        <v>211.89987035066963</v>
       </c>
       <c r="E28" s="4">
-        <f>$M$6/absolut!E28*100</f>
-        <v>51.554183343585748</v>
+        <f>$M$24/absolut!E28*100</f>
+        <v>103.1083666871715</v>
       </c>
       <c r="F28" s="4">
-        <f>$L$6/absolut!F28*100</f>
-        <v>218.00281408932571</v>
+        <f>$L$24/absolut!F28*100</f>
+        <v>179.85232162369368</v>
       </c>
       <c r="G28" s="4">
-        <f>$M$6/absolut!G28*100</f>
-        <v>26.310015117734686</v>
+        <f>$M$24/absolut!G28*100</f>
+        <v>52.620030235469372</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1737,20 +1737,20 @@
         <v>1</v>
       </c>
       <c r="D32" s="4">
-        <f>$L$4/absolut!D32*100</f>
-        <v>358.00308741862585</v>
+        <f>$L$22/absolut!D32*100</f>
+        <v>179.00154370931293</v>
       </c>
       <c r="E32" s="4">
-        <f>$M$4/absolut!E32*100</f>
-        <v>72.404648146716141</v>
+        <f>$M$22/absolut!E32*100</f>
+        <v>173.77115555211873</v>
       </c>
       <c r="F32" s="4">
-        <f>$L$4/absolut!F32*100</f>
-        <v>182.77158486724389</v>
+        <f>$L$22/absolut!F32*100</f>
+        <v>91.385792433621944</v>
       </c>
       <c r="G32" s="4">
-        <f>$M$4/absolut!G32*100</f>
-        <v>47.830668718666132</v>
+        <f>$M$22/absolut!G32*100</f>
+        <v>114.79360492479871</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1767,20 +1767,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="4">
-        <f>$L$5/absolut!D33*100</f>
-        <v>104.64020876857745</v>
+        <f>$L$23/absolut!D33*100</f>
+        <v>89.691607515923522</v>
       </c>
       <c r="E33" s="4">
-        <f>$M$5/absolut!E33*100</f>
-        <v>169.22478127697019</v>
+        <f>$M$23/absolut!E33*100</f>
+        <v>67.689912510788076</v>
       </c>
       <c r="F33" s="4">
-        <f>$L$5/absolut!F33*100</f>
-        <v>148.89945224145791</v>
+        <f>$L$23/absolut!F33*100</f>
+        <v>127.62810192124965</v>
       </c>
       <c r="G33" s="4">
-        <f>$M$5/absolut!G33*100</f>
-        <v>521.17137087527612</v>
+        <f>$M$23/absolut!G33*100</f>
+        <v>208.46854835011044</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1797,20 +1797,20 @@
         <v>3</v>
       </c>
       <c r="D34" s="4">
-        <f>$L$6/absolut!D34*100</f>
-        <v>141.19421258787875</v>
+        <f>$L$24/absolut!D34*100</f>
+        <v>116.48522538499996</v>
       </c>
       <c r="E34" s="4">
-        <f>$M$6/absolut!E34*100</f>
-        <v>24.978094211376622</v>
+        <f>$M$24/absolut!E34*100</f>
+        <v>49.956188422753243</v>
       </c>
       <c r="F34" s="4">
-        <f>$L$6/absolut!F34*100</f>
-        <v>132.09011874769587</v>
+        <f>$L$24/absolut!F34*100</f>
+        <v>108.97434796684908</v>
       </c>
       <c r="G34" s="4">
-        <f>$M$6/absolut!G34*100</f>
-        <v>15.081081928882444</v>
+        <f>$M$24/absolut!G34*100</f>
+        <v>30.162163857764888</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24">
-        <v>1814100045</v>
+        <v>0.1814100045</v>
       </c>
       <c r="J24" t="s">
         <v>29</v>

--- a/data/testing/PyNeapple_test_results.xlsx
+++ b/data/testing/PyNeapple_test_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\Pyneapple\data\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD97BE-BDEF-4A60-8FAC-CE36135BD22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575D8FE3-F6CB-4C78-8FB2-D2B8E765EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>NNLS</t>
   </si>
@@ -84,309 +84,6 @@
   <si>
     <t>0.2</t>
   </si>
-  <si>
-    <t>0.002309026</t>
-  </si>
-  <si>
-    <t>0.29760531</t>
-  </si>
-  <si>
-    <t>0.007437835</t>
-  </si>
-  <si>
-    <t>0.65394311</t>
-  </si>
-  <si>
-    <t>0.245969266</t>
-  </si>
-  <si>
-    <t>0.04845158</t>
-  </si>
-  <si>
-    <t>0.0008752992</t>
-  </si>
-  <si>
-    <t>0.5502455</t>
-  </si>
-  <si>
-    <t>0.0059518314</t>
-  </si>
-  <si>
-    <t>0.3496830</t>
-  </si>
-  <si>
-    <t>0.1000715</t>
-  </si>
-  <si>
-    <t>0.001003765</t>
-  </si>
-  <si>
-    <t>0.1294531</t>
-  </si>
-  <si>
-    <t>0.008578313</t>
-  </si>
-  <si>
-    <t>0.6875360</t>
-  </si>
-  <si>
-    <t>0.047869451</t>
-  </si>
-  <si>
-    <t>0.1830110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00101416 </t>
-  </si>
-  <si>
-    <t>0.1328264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01087579 </t>
-  </si>
-  <si>
-    <t>0.5600401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05351336 </t>
-  </si>
-  <si>
-    <t>0.3071334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0002604349 </t>
-  </si>
-  <si>
-    <t>0.05583285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0061540879 </t>
-  </si>
-  <si>
-    <t>0.23797254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1500170016 </t>
-  </si>
-  <si>
-    <t>0.70556961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00133891 </t>
-  </si>
-  <si>
-    <t>0.6266574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01073168 </t>
-  </si>
-  <si>
-    <t>0.2130601</t>
-  </si>
-  <si>
-    <t>0.07738852</t>
-  </si>
-  <si>
-    <t>0.1602825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001195749 </t>
-  </si>
-  <si>
-    <t>0.6501043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010859056 </t>
-  </si>
-  <si>
-    <t>0.1486040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.091741935 </t>
-  </si>
-  <si>
-    <t>0.1900417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001094262 </t>
-  </si>
-  <si>
-    <t>0.5226772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004701159 </t>
-  </si>
-  <si>
-    <t>0.1439066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151411780 </t>
-  </si>
-  <si>
-    <t>0.3315412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002910958 </t>
-  </si>
-  <si>
-    <t>0.43321389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015503357 </t>
-  </si>
-  <si>
-    <t>0.55313849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.098412650 </t>
-  </si>
-  <si>
-    <t>0.05750646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144567139 </t>
-  </si>
-  <si>
-    <t>0.03918744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001151630 </t>
-  </si>
-  <si>
-    <t>0.15830277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006160964 </t>
-  </si>
-  <si>
-    <t>0.73859604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.063486685 </t>
-  </si>
-  <si>
-    <t>0.14455757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134751005 </t>
-  </si>
-  <si>
-    <t>0.03356254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186352162 </t>
-  </si>
-  <si>
-    <t>0.01269213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001119359 </t>
-  </si>
-  <si>
-    <t>0.18851221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024675055 </t>
-  </si>
-  <si>
-    <t>0.72291822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150396430 </t>
-  </si>
-  <si>
-    <t>0.10519389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158636534 </t>
-  </si>
-  <si>
-    <t>0.08170347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00149398 </t>
-  </si>
-  <si>
-    <t>0.66767609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01566804 </t>
-  </si>
-  <si>
-    <t>0.27618070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11724602 </t>
-  </si>
-  <si>
-    <t>0.09172823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15313378 </t>
-  </si>
-  <si>
-    <t>0.08341862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000614703 </t>
-  </si>
-  <si>
-    <t>0.42815449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004592765 </t>
-  </si>
-  <si>
-    <t>0.47501691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.077866966 </t>
-  </si>
-  <si>
-    <t>0.09698534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155755637 </t>
-  </si>
-  <si>
-    <t>0.06148246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190236625 </t>
-  </si>
-  <si>
-    <t>0.02810886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193987098 </t>
-  </si>
-  <si>
-    <t>0.02097187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0005586544 </t>
-  </si>
-  <si>
-    <t>0.3452817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0066895891 </t>
-  </si>
-  <si>
-    <t>0.4431975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1416488653 </t>
-  </si>
-  <si>
-    <t>0.2001754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1577381397 </t>
-  </si>
-  <si>
-    <t>0.1915278</t>
-  </si>
 </sst>
 </file>
 
@@ -433,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -450,39 +147,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,27 +189,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -829,7 +488,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:G34"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -842,31 +501,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -876,12 +535,12 @@
         <v>5</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -889,10 +548,10 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -902,24 +561,24 @@
         <v>9</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5">
@@ -927,37 +586,37 @@
       </c>
       <c r="D4" s="4">
         <f>$L$4/absolut!D4*100</f>
-        <v>68.705903692186567</v>
+        <v>81.101594935070523</v>
       </c>
       <c r="E4" s="4">
         <f>$M$4/absolut!E4*100</f>
-        <v>57.708214295714299</v>
+        <v>75.667058979682579</v>
       </c>
       <c r="F4" s="4">
         <f>$L$4/absolut!F4*100</f>
-        <v>199.24982441109225</v>
+        <v>113.46398420478178</v>
       </c>
       <c r="G4" s="4">
         <f>$M$4/absolut!G4*100</f>
-        <v>193.12013385542718</v>
+        <v>127.87434170772541</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="4">
         <f>$L$4/absolut!I4*100</f>
-        <v>86.61660804165912</v>
+        <v>91.015356481378973</v>
       </c>
       <c r="J4" s="4">
         <f>$M$4/absolut!J4*100</f>
-        <v>84.003877484578481</v>
-      </c>
-      <c r="K4" s="15"/>
+        <v>95.329345550838539</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4">
         <v>0.25</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -967,37 +626,37 @@
       </c>
       <c r="D5" s="4">
         <f>$L$5/absolut!D5*100</f>
-        <v>45.151511379116151</v>
+        <v>94.588881638212897</v>
       </c>
       <c r="E5" s="4">
         <f>$M$5/absolut!E5*100</f>
-        <v>135.58991347718361</v>
+        <v>115.85934888769491</v>
       </c>
       <c r="F5" s="4">
         <f>$L$5/absolut!F5*100</f>
-        <v>81.601126002280395</v>
+        <v>106.87316843447367</v>
       </c>
       <c r="G5" s="4">
         <f>$M$5/absolut!G5*100</f>
-        <v>109.08519699332106</v>
+        <v>85.678788217260688</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="4">
         <f>$L$5/absolut!I5*100</f>
-        <v>94.1134080011186</v>
+        <v>96.461401448594145</v>
       </c>
       <c r="J5" s="4">
         <f>$M$5/absolut!J5*100</f>
-        <v>114.688875611825</v>
-      </c>
-      <c r="K5" s="15"/>
+        <v>107.14285714301244</v>
+      </c>
+      <c r="K5" s="10"/>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5">
         <v>0.75</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -1007,37 +666,37 @@
       </c>
       <c r="D6" s="4">
         <f>$L$6/absolut!D6*100</f>
-        <v>203.22590642564751</v>
+        <v>208.05184231032149</v>
       </c>
       <c r="E6" s="4">
         <f>$M$6/absolut!E6*100</f>
-        <v>86.94675346039385</v>
+        <v>99.154145599124291</v>
       </c>
       <c r="F6" s="4">
         <f>$L$6/absolut!F6*100</f>
-        <v>417.8029950667285</v>
+        <v>162.97251859418012</v>
       </c>
       <c r="G6" s="4">
         <f>$M$6/absolut!G6*100</f>
-        <v>27.320762139980658</v>
+        <v>91.926221397608685</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4">
         <f>$L$6/absolut!I6*100</f>
-        <v>81.310971591060493</v>
+        <v>88.595308077558172</v>
       </c>
       <c r="J6" s="4">
         <f>$M$6/absolut!J6*100</f>
-        <v>103.1958090943577</v>
-      </c>
-      <c r="K6" s="15"/>
+        <v>105.34928582787029</v>
+      </c>
+      <c r="K6" s="10"/>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6">
         <v>0.05</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -1045,29 +704,29 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5">
@@ -1075,27 +734,27 @@
       </c>
       <c r="D8" s="4">
         <f>$L$4/absolut!D8*100</f>
-        <v>173.66688953917492</v>
+        <v>215.40617528952239</v>
       </c>
       <c r="E8" s="4">
         <f>$M$4/absolut!E8*100</f>
-        <v>157.92522139694711</v>
+        <v>233.41779543398204</v>
       </c>
       <c r="F8" s="4">
         <f>$L$4/absolut!F8*100</f>
-        <v>197.20754121637611</v>
+        <v>113.46398420478178</v>
       </c>
       <c r="G8" s="4">
         <f>$M$4/absolut!G8*100</f>
-        <v>188.21559569483173</v>
+        <v>127.87434170772541</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -1105,27 +764,27 @@
       </c>
       <c r="D9" s="4">
         <f>$L$5/absolut!D9*100</f>
-        <v>113.61858306589684</v>
+        <v>117.1224451993355</v>
       </c>
       <c r="E9" s="4">
         <f>$M$5/absolut!E9*100</f>
-        <v>101.54400502878407</v>
+        <v>95.78797078513746</v>
       </c>
       <c r="F9" s="4">
         <f>$L$5/absolut!F9*100</f>
-        <v>64.363140516688915</v>
+        <v>106.87316843447367</v>
       </c>
       <c r="G9" s="4">
         <f>$M$5/absolut!G9*100</f>
-        <v>133.91898187290516</v>
+        <v>85.678788217260688</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -1135,76 +794,76 @@
       </c>
       <c r="D10" s="4">
         <f>$L$6/absolut!D10*100</f>
-        <v>315.02668630438018</v>
+        <v>527.79347146861744</v>
       </c>
       <c r="E10" s="4">
         <f>$M$6/absolut!E10*100</f>
-        <v>34.588295860258306</v>
+        <v>78.54911883863042</v>
       </c>
       <c r="F10" s="4">
         <f>$L$6/absolut!F10*100</f>
-        <v>373.73844587594579</v>
+        <v>162.97251859418012</v>
       </c>
       <c r="G10" s="4">
         <f>$M$6/absolut!G10*100</f>
-        <v>16.279571026791618</v>
+        <v>91.926221397608685</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="D11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="D12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1216,27 +875,27 @@
       </c>
       <c r="D13" s="4">
         <f>$L$4/absolut!D13*100</f>
-        <v>178.67368735142168</v>
+        <v>1429.5566210454394</v>
       </c>
       <c r="E13" s="4">
         <f>$M$4/absolut!E13*100</f>
-        <v>132.61740446414586</v>
+        <v>373.8937153072057</v>
       </c>
       <c r="F13" s="4">
         <f>$L$4/absolut!F13*100</f>
-        <v>767.94623147665698</v>
+        <v>1473.8677290329415</v>
       </c>
       <c r="G13" s="4">
         <f>$M$4/absolut!G13*100</f>
-        <v>447.76507020508535</v>
+        <v>400.66893943713904</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1246,27 +905,27 @@
       </c>
       <c r="D14" s="4">
         <f>$L$5/absolut!D14*100</f>
-        <v>28.368731093000605</v>
+        <v>120.75281928916522</v>
       </c>
       <c r="E14" s="4">
         <f>$M$5/absolut!E14*100</f>
-        <v>103.74617477478989</v>
+        <v>90.375301296345071</v>
       </c>
       <c r="F14" s="4">
         <f>$L$5/absolut!F14*100</f>
-        <v>113.7455316489711</v>
+        <v>120.75281928916523</v>
       </c>
       <c r="G14" s="4">
         <f>$M$5/absolut!G14*100</f>
-        <v>315.16241327675868</v>
+        <v>89.050885398246606</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1276,27 +935,27 @@
       </c>
       <c r="D15" s="4">
         <f>$L$6/absolut!D15*100</f>
-        <v>132.98187995552823</v>
+        <v>120.09996793759153</v>
       </c>
       <c r="E15" s="4">
         <f>$M$6/absolut!E15*100</f>
-        <v>47.531277719647029</v>
+        <v>50.731211468047199</v>
       </c>
       <c r="F15" s="4">
         <f>$L$6/absolut!F15*100</f>
-        <v>133.31822251272087</v>
+        <v>120.09996793759159</v>
       </c>
       <c r="G15" s="4">
         <f>$M$6/absolut!G15*100</f>
-        <v>7.0864730129178906</v>
+        <v>49.540020833944723</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1304,25 +963,25 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -1335,37 +994,37 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1375,12 +1034,12 @@
         <v>5</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -1388,10 +1047,10 @@
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1401,24 +1060,24 @@
         <v>9</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="12" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="15"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="5">
@@ -1426,37 +1085,37 @@
       </c>
       <c r="D22" s="4">
         <f>$L$22/absolut!D22*100</f>
-        <v>66.935300338692613</v>
+        <v>84.366681202734298</v>
       </c>
       <c r="E22" s="4">
         <f>$M$22/absolut!E22*100</f>
-        <v>89.863933872485973</v>
+        <v>87.355031009956335</v>
       </c>
       <c r="F22" s="4">
         <f>$L$22/absolut!F22*100</f>
-        <v>74.687619033392835</v>
+        <v>86.981744549149752</v>
       </c>
       <c r="G22" s="4">
         <f>$M$22/absolut!G22*100</f>
-        <v>95.746096671003954</v>
+        <v>88.046554528637557</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
         <f>$L$22/absolut!I22*100</f>
-        <v>114.24664846032077</v>
+        <v>101.11436230461838</v>
       </c>
       <c r="J22" s="4">
         <f>$M$22/absolut!J22*100</f>
-        <v>109.04223660166232</v>
-      </c>
-      <c r="K22" s="15"/>
+        <v>100.60430741328328</v>
+      </c>
+      <c r="K22" s="10"/>
       <c r="L22" t="s">
         <v>13</v>
       </c>
       <c r="M22">
         <v>0.6</v>
       </c>
-      <c r="N22" s="15"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -1466,37 +1125,37 @@
       </c>
       <c r="D23" s="4">
         <f>$L$23/absolut!D23*100</f>
-        <v>38.294515459495884</v>
+        <v>83.589254050328137</v>
       </c>
       <c r="E23" s="4">
         <f>$M$23/absolut!E23*100</f>
-        <v>108.62453458912951</v>
+        <v>116.950417168321</v>
       </c>
       <c r="F23" s="4">
         <f>$L$23/absolut!F23*100</f>
-        <v>55.909233223502753</v>
+        <v>86.180219954225066</v>
       </c>
       <c r="G23" s="4">
         <f>$M$23/absolut!G23*100</f>
-        <v>140.80534084044828</v>
+        <v>105.07756731434617</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="4">
         <f>$L$23/absolut!I23*100</f>
-        <v>100.80930719912531</v>
+        <v>102.75898977976911</v>
       </c>
       <c r="J23" s="4">
         <f>$M$23/absolut!J23*100</f>
-        <v>85.791988744091057</v>
-      </c>
-      <c r="K23" s="15"/>
+        <v>99.357480256924987</v>
+      </c>
+      <c r="K23" s="10"/>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23">
         <v>0.3</v>
       </c>
-      <c r="N23" s="15"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -1506,37 +1165,37 @@
       </c>
       <c r="D24" s="4">
         <f>$L$24/absolut!D24*100</f>
-        <v>140.72972370405409</v>
+        <v>126.48936974315134</v>
       </c>
       <c r="E24" s="4">
         <f>$M$24/absolut!E24*100</f>
-        <v>109.01769280841897</v>
+        <v>107.76359808461082</v>
       </c>
       <c r="F24" s="4">
         <f>$L$24/absolut!F24*100</f>
-        <v>213.20991795682355</v>
+        <v>118.99801896353675</v>
       </c>
       <c r="G24" s="4">
         <f>$M$24/absolut!G24*100</f>
-        <v>62.389842933570414</v>
+        <v>96.417772962499001</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="4">
         <f>$L$24/absolut!I24*100</f>
-        <v>90.954189905221028</v>
+        <v>99.285713499508205</v>
       </c>
       <c r="J24" s="4">
         <f>$M$24/absolut!J24*100</f>
-        <v>99.928551085973538</v>
-      </c>
-      <c r="K24" s="15"/>
+        <v>99.802572537833072</v>
+      </c>
+      <c r="K24" s="10"/>
       <c r="L24" t="s">
         <v>15</v>
       </c>
       <c r="M24">
         <v>0.1</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -1544,29 +1203,29 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="D25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5">
@@ -1574,27 +1233,27 @@
       </c>
       <c r="D26" s="4">
         <f>$L$22/absolut!D26*100</f>
-        <v>162.68018864394676</v>
+        <v>146.15027593477342</v>
       </c>
       <c r="E26" s="4">
         <f>$M$22/absolut!E26*100</f>
-        <v>140.13633256537844</v>
+        <v>127.06207890948427</v>
       </c>
       <c r="F26" s="4">
         <f>$L$22/absolut!F26*100</f>
-        <v>83.629591160017696</v>
+        <v>86.981744549149752</v>
       </c>
       <c r="G26" s="4">
         <f>$M$22/absolut!G26*100</f>
-        <v>92.292882849721195</v>
+        <v>88.046554528637557</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -1604,27 +1263,27 @@
       </c>
       <c r="D27" s="4">
         <f>$L$23/absolut!D27*100</f>
-        <v>130.6402570129323</v>
+        <v>144.80352160920856</v>
       </c>
       <c r="E27" s="4">
         <f>$M$23/absolut!E27*100</f>
-        <v>63.155646395830409</v>
+        <v>68.803269242169179</v>
       </c>
       <c r="F27" s="4">
         <f>$L$23/absolut!F27*100</f>
-        <v>55.253421660225342</v>
+        <v>86.180219954225066</v>
       </c>
       <c r="G27" s="4">
         <f>$M$23/absolut!G27*100</f>
-        <v>201.87881887432368</v>
+        <v>105.07756731434617</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -1634,99 +1293,99 @@
       </c>
       <c r="D28" s="4">
         <f>$L$24/absolut!D28*100</f>
-        <v>211.89987035066963</v>
+        <v>306.55707058239147</v>
       </c>
       <c r="E28" s="4">
         <f>$M$24/absolut!E28*100</f>
-        <v>103.1083666871715</v>
+        <v>108.47157912507137</v>
       </c>
       <c r="F28" s="4">
         <f>$L$24/absolut!F28*100</f>
-        <v>179.85232162369368</v>
+        <v>118.99801896353675</v>
       </c>
       <c r="G28" s="4">
         <f>$M$24/absolut!G28*100</f>
-        <v>52.620030235469372</v>
+        <v>96.417772962499001</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="D29" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="D30" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="D30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10">
+      <c r="B31" s="7"/>
+      <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="19" t="s">
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
@@ -1738,27 +1397,27 @@
       </c>
       <c r="D32" s="4">
         <f>$L$22/absolut!D32*100</f>
-        <v>179.00154370931293</v>
+        <v>412.61279507547846</v>
       </c>
       <c r="E32" s="4">
         <f>$M$22/absolut!E32*100</f>
-        <v>173.77115555211873</v>
+        <v>216.68028713495778</v>
       </c>
       <c r="F32" s="4">
         <f>$L$22/absolut!F32*100</f>
-        <v>91.385792433621944</v>
+        <v>92.457556377917811</v>
       </c>
       <c r="G32" s="4">
         <f>$M$22/absolut!G32*100</f>
-        <v>114.79360492479871</v>
+        <v>116.61399482246804</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
@@ -1768,27 +1427,27 @@
       </c>
       <c r="D33" s="4">
         <f>$L$23/absolut!D33*100</f>
-        <v>89.691607515923522</v>
+        <v>179.29953532185255</v>
       </c>
       <c r="E33" s="4">
         <f>$M$23/absolut!E33*100</f>
-        <v>67.689912510788076</v>
+        <v>57.59514853990332</v>
       </c>
       <c r="F33" s="4">
         <f>$L$23/absolut!F33*100</f>
-        <v>127.62810192124965</v>
+        <v>136.22751259990753</v>
       </c>
       <c r="G33" s="4">
         <f>$M$23/absolut!G33*100</f>
-        <v>208.46854835011044</v>
+        <v>78.060768878904781</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -1798,27 +1457,27 @@
       </c>
       <c r="D34" s="4">
         <f>$L$24/absolut!D34*100</f>
-        <v>116.48522538499996</v>
+        <v>105.32006953480601</v>
       </c>
       <c r="E34" s="4">
         <f>$M$24/absolut!E34*100</f>
-        <v>49.956188422753243</v>
+        <v>50.114270949510519</v>
       </c>
       <c r="F34" s="4">
         <f>$L$24/absolut!F34*100</f>
-        <v>108.97434796684908</v>
+        <v>105.32006953480601</v>
       </c>
       <c r="G34" s="4">
         <f>$M$24/absolut!G34*100</f>
-        <v>30.162163857764888</v>
+        <v>49.398749892913244</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
@@ -1826,25 +1485,25 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="19" t="s">
+      <c r="D35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
@@ -1857,10 +1516,10 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1872,7 +1531,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1885,31 +1544,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1919,12 +1578,12 @@
         <v>5</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1932,10 +1591,10 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1945,56 +1604,56 @@
         <v>9</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
+      <c r="D4">
+        <v>2.4660427474961361E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.33039476275551782</v>
+      </c>
+      <c r="F4">
+        <v>1.7626738687320949E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.19550442775409141</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15"/>
+      <c r="I4">
+        <v>2.1974313756703071E-3</v>
+      </c>
+      <c r="J4">
+        <v>0.26224873207240951</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4">
         <v>0.25</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -2002,33 +1661,33 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
+      <c r="D5">
+        <v>7.400446943409124E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.64733662600416642</v>
+      </c>
+      <c r="F5">
+        <v>6.549819849583533E-3</v>
+      </c>
+      <c r="G5">
+        <v>0.87536252041541651</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="15"/>
+      <c r="I5">
+        <v>7.2567886168753357E-3</v>
+      </c>
+      <c r="J5">
+        <v>0.69999999999898543</v>
+      </c>
+      <c r="K5" s="10"/>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5">
         <v>0.75</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -2036,33 +1695,33 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
+      <c r="D6">
+        <v>9.6129886560527691E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.0426535066065453E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.122720076811246</v>
+      </c>
+      <c r="G6">
+        <v>5.4391444834586307E-2</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="15"/>
+      <c r="I6">
+        <v>0.22574558894802405</v>
+      </c>
+      <c r="J6">
+        <v>4.7461166544303657E-2</v>
+      </c>
+      <c r="K6" s="10"/>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6">
         <v>0.05</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -2070,47 +1729,47 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>73</v>
+      <c r="D7">
+        <v>0.15195523218213769</v>
+      </c>
+      <c r="E7">
+        <v>3.8077307906776041E-2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
+      <c r="D8">
+        <v>9.284784882846775E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.10710408755904299</v>
+      </c>
+      <c r="F8">
+        <v>1.7626738687320949E-3</v>
+      </c>
+      <c r="G8">
+        <v>0.19550442775409141</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -2118,25 +1777,25 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
+      <c r="D9">
+        <v>5.9766511773950868E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.78297931760380357</v>
+      </c>
+      <c r="F9">
+        <v>6.549819849583533E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.87536252041541651</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -2144,25 +1803,25 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
+      <c r="D10">
+        <v>3.7893610059913749E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.3654437808168041E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.122720076811246</v>
+      </c>
+      <c r="G10">
+        <v>5.4391444834586307E-2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -2170,41 +1829,41 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>81</v>
+      <c r="D11">
+        <v>0.138657770471422</v>
+      </c>
+      <c r="E11">
+        <v>3.4443887749228519E-2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="D12">
+        <v>0.19398709841939801</v>
+      </c>
+      <c r="E12">
+        <v>1.3554534919491065E-2</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -2214,25 +1873,25 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
+      <c r="D13">
+        <v>1.3990351767510919E-4</v>
+      </c>
+      <c r="E13">
+        <v>6.6863921420714498E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.3569738726230699E-4</v>
+      </c>
+      <c r="G13">
+        <v>6.2395652717977278E-2</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -2240,25 +1899,25 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
+      <c r="D14">
+        <v>5.7969661008387642E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.82987275200412658</v>
+      </c>
+      <c r="F14">
+        <v>5.7969661008387633E-3</v>
+      </c>
+      <c r="G14">
+        <v>0.84221509606098466</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -2266,25 +1925,25 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
+      <c r="D15">
+        <v>0.1665279378791571</v>
+      </c>
+      <c r="E15">
+        <v>9.8558655614783136E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.16652793787915701</v>
+      </c>
+      <c r="G15">
+        <v>0.10092850014657261</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -2292,19 +1951,19 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>91</v>
+      <c r="D16">
+        <v>0.16152135737471721</v>
+      </c>
+      <c r="E16">
+        <v>8.3709700826493469E-2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -2317,37 +1976,37 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="3" t="s">
         <v>1</v>
       </c>
@@ -2357,12 +2016,12 @@
         <v>5</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -2370,10 +2029,10 @@
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2383,56 +2042,56 @@
         <v>9</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="12" t="s">
+      <c r="K21" s="10"/>
+      <c r="L21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="15"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>49</v>
+      <c r="D22">
+        <v>1.185302047851078E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.68685225460181532</v>
+      </c>
+      <c r="F22">
+        <v>1.149666525066006E-3</v>
+      </c>
+      <c r="G22">
+        <v>0.68145767112879718</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="15"/>
+      <c r="I22">
+        <v>9.8897918872037946E-4</v>
+      </c>
+      <c r="J22">
+        <v>0.59639593515136013</v>
+      </c>
+      <c r="K22" s="10"/>
       <c r="L22" t="s">
         <v>13</v>
       </c>
       <c r="M22">
         <v>0.6</v>
       </c>
-      <c r="N22" s="15"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -2440,33 +2099,33 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" t="s">
-        <v>51</v>
+      <c r="D23">
+        <v>7.1779561477931936E-3</v>
+      </c>
+      <c r="E23">
+        <v>0.2565189652707478</v>
+      </c>
+      <c r="F23">
+        <v>6.9621544284604077E-3</v>
+      </c>
+      <c r="G23">
+        <v>0.28550337400040016</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="15"/>
+      <c r="I23">
+        <v>5.8389052022203344E-3</v>
+      </c>
+      <c r="J23">
+        <v>0.30194002426816846</v>
+      </c>
+      <c r="K23" s="10"/>
       <c r="L23" t="s">
         <v>14</v>
       </c>
       <c r="M23">
         <v>0.3</v>
       </c>
-      <c r="N23" s="15"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -2474,33 +2133,33 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
+      <c r="D24">
+        <v>0.13044574444085549</v>
+      </c>
+      <c r="E24">
+        <v>9.2795713745085592E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.138657770471422</v>
+      </c>
+      <c r="G24">
+        <v>0.10371531816949794</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24">
-        <v>0.1814100045</v>
-      </c>
-      <c r="J24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="15"/>
+        <v>0.16618705167568476</v>
+      </c>
+      <c r="J24">
+        <v>0.1001978180092423</v>
+      </c>
+      <c r="K24" s="10"/>
       <c r="L24" t="s">
         <v>15</v>
       </c>
       <c r="M24">
         <v>0.1</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -2508,47 +2167,47 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>99</v>
+      <c r="D25">
+        <v>0.16402464762693714</v>
+      </c>
+      <c r="E25">
+        <v>8.5075205497019052E-2</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>55</v>
+      <c r="D26">
+        <v>6.8422724049203854E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.47221012370451171</v>
+      </c>
+      <c r="F26">
+        <v>1.149666525066006E-3</v>
+      </c>
+      <c r="G26">
+        <v>0.68145767112879718</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -2556,25 +2215,25 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
+      <c r="D27">
+        <v>4.1435456357150086E-3</v>
+      </c>
+      <c r="E27">
+        <v>0.43602579253040996</v>
+      </c>
+      <c r="F27">
+        <v>6.9621544284604077E-3</v>
+      </c>
+      <c r="G27">
+        <v>0.28550337400040016</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -2582,25 +2241,25 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" t="s">
-        <v>59</v>
+      <c r="D28">
+        <v>5.3823583219442972E-2</v>
+      </c>
+      <c r="E28">
+        <v>9.2190047205541886E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.138657770471422</v>
+      </c>
+      <c r="G28">
+        <v>0.10371531816949794</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -2608,19 +2267,19 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>107</v>
+      <c r="D29">
+        <v>0.17168970435252909</v>
+      </c>
+      <c r="E29">
+        <v>6.4267458635436037E-2</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
@@ -2628,41 +2287,41 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>109</v>
+      <c r="D30">
+        <v>0.19398709841939801</v>
+      </c>
+      <c r="E30">
+        <v>2.243589780687992E-2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10">
+      <c r="B31" s="7"/>
+      <c r="C31" s="6">
         <v>6</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31">
+        <v>0.19398709841939801</v>
+      </c>
+      <c r="E31">
+        <v>2.097187165219656E-2</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
@@ -2672,25 +2331,25 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>61</v>
+      <c r="D32">
+        <v>2.423579714286543E-4</v>
+      </c>
+      <c r="E32">
+        <v>0.2769056696081883</v>
+      </c>
+      <c r="F32">
+        <v>1.0815773628198939E-3</v>
+      </c>
+      <c r="G32">
+        <v>0.51451800524751246</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
@@ -2698,25 +2357,25 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>63</v>
+      <c r="D33">
+        <v>3.3463555771238722E-3</v>
+      </c>
+      <c r="E33">
+        <v>0.52087720512110969</v>
+      </c>
+      <c r="F33">
+        <v>4.4043966490246791E-3</v>
+      </c>
+      <c r="G33">
+        <v>0.38431596858261574</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -2724,25 +2383,25 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" t="s">
-        <v>65</v>
+      <c r="D34">
+        <v>0.1566652972494203</v>
+      </c>
+      <c r="E34">
+        <v>0.19954395844798126</v>
+      </c>
+      <c r="F34">
+        <v>0.1566652972494203</v>
+      </c>
+      <c r="G34">
+        <v>0.20243427256110791</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
@@ -2750,19 +2409,19 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>119</v>
+      <c r="D35">
+        <v>0.1566652972494203</v>
+      </c>
+      <c r="E35">
+        <v>0.19833030845553501</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
@@ -2775,10 +2434,10 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/testing/PyNeapple_test_results.xlsx
+++ b/data/testing/PyNeapple_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\Pyneapple\data\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575D8FE3-F6CB-4C78-8FB2-D2B8E765EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DF39CE-B535-4B1A-BABA-B57C41B84DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relativ" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t>NNLS</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>0.2</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>reg = 0*</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD789FA1-9799-4583-AE09-28D4F507798E}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -586,19 +592,19 @@
       </c>
       <c r="D4" s="4">
         <f>$L$4/absolut!D4*100</f>
-        <v>81.101594935070523</v>
+        <v>67.604874451928978</v>
       </c>
       <c r="E4" s="4">
         <f>$M$4/absolut!E4*100</f>
-        <v>75.667058979682579</v>
+        <v>57.939015352312218</v>
       </c>
       <c r="F4" s="4">
         <f>$L$4/absolut!F4*100</f>
-        <v>113.46398420478178</v>
+        <v>104.35622380550677</v>
       </c>
       <c r="G4" s="4">
         <f>$M$4/absolut!G4*100</f>
-        <v>127.87434170772541</v>
+        <v>113.19130228106017</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="4">
@@ -626,19 +632,19 @@
       </c>
       <c r="D5" s="4">
         <f>$L$5/absolut!D5*100</f>
-        <v>94.588881638212897</v>
+        <v>84.935811597327955</v>
       </c>
       <c r="E5" s="4">
         <f>$M$5/absolut!E5*100</f>
-        <v>115.85934888769491</v>
+        <v>136.41187640875862</v>
       </c>
       <c r="F5" s="4">
         <f>$L$5/absolut!F5*100</f>
-        <v>106.87316843447367</v>
+        <v>105.63206522262176</v>
       </c>
       <c r="G5" s="4">
         <f>$M$5/absolut!G5*100</f>
-        <v>85.678788217260688</v>
+        <v>84.136707720467498</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="4">
@@ -666,19 +672,19 @@
       </c>
       <c r="D6" s="4">
         <f>$L$6/absolut!D6*100</f>
-        <v>208.05184231032149</v>
+        <v>153.42855792946946</v>
       </c>
       <c r="E6" s="4">
         <f>$M$6/absolut!E6*100</f>
-        <v>99.154145599124291</v>
+        <v>104.42808276417179</v>
       </c>
       <c r="F6" s="4">
         <f>$L$6/absolut!F6*100</f>
-        <v>162.97251859418012</v>
+        <v>138.24725612545851</v>
       </c>
       <c r="G6" s="4">
         <f>$M$6/absolut!G6*100</f>
-        <v>91.926221397608685</v>
+        <v>98.117995086244918</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4">
@@ -734,19 +740,19 @@
       </c>
       <c r="D8" s="4">
         <f>$L$4/absolut!D8*100</f>
-        <v>215.40617528952239</v>
+        <v>67.604874451928978</v>
       </c>
       <c r="E8" s="4">
         <f>$M$4/absolut!E8*100</f>
-        <v>233.41779543398204</v>
+        <v>57.939015352312218</v>
       </c>
       <c r="F8" s="4">
         <f>$L$4/absolut!F8*100</f>
-        <v>113.46398420478178</v>
+        <v>104.35622380550677</v>
       </c>
       <c r="G8" s="4">
         <f>$M$4/absolut!G8*100</f>
-        <v>127.87434170772541</v>
+        <v>113.19130228106017</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -764,19 +770,19 @@
       </c>
       <c r="D9" s="4">
         <f>$L$5/absolut!D9*100</f>
-        <v>117.1224451993355</v>
+        <v>84.935811597327955</v>
       </c>
       <c r="E9" s="4">
         <f>$M$5/absolut!E9*100</f>
-        <v>95.78797078513746</v>
+        <v>136.41187640875862</v>
       </c>
       <c r="F9" s="4">
         <f>$L$5/absolut!F9*100</f>
-        <v>106.87316843447367</v>
+        <v>105.63206522262176</v>
       </c>
       <c r="G9" s="4">
         <f>$M$5/absolut!G9*100</f>
-        <v>85.678788217260688</v>
+        <v>84.136707720467498</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -794,19 +800,19 @@
       </c>
       <c r="D10" s="4">
         <f>$L$6/absolut!D10*100</f>
-        <v>527.79347146861744</v>
+        <v>153.42855792946946</v>
       </c>
       <c r="E10" s="4">
         <f>$M$6/absolut!E10*100</f>
-        <v>78.54911883863042</v>
+        <v>104.42808276417179</v>
       </c>
       <c r="F10" s="4">
         <f>$L$6/absolut!F10*100</f>
-        <v>162.97251859418012</v>
+        <v>138.24725612545851</v>
       </c>
       <c r="G10" s="4">
         <f>$M$6/absolut!G10*100</f>
-        <v>91.926221397608685</v>
+        <v>98.117995086244918</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -875,19 +881,19 @@
       </c>
       <c r="D13" s="4">
         <f>$L$4/absolut!D13*100</f>
-        <v>1429.5566210454394</v>
+        <v>236.03380303131573</v>
       </c>
       <c r="E13" s="4">
         <f>$M$4/absolut!E13*100</f>
-        <v>373.8937153072057</v>
+        <v>170.17883467533602</v>
       </c>
       <c r="F13" s="4">
         <f>$L$4/absolut!F13*100</f>
-        <v>1473.8677290329415</v>
+        <v>236.03380303131573</v>
       </c>
       <c r="G13" s="4">
         <f>$M$4/absolut!G13*100</f>
-        <v>400.66893943713904</v>
+        <v>172.09790475997926</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -905,19 +911,19 @@
       </c>
       <c r="D14" s="4">
         <f>$L$5/absolut!D14*100</f>
-        <v>120.75281928916522</v>
+        <v>112.13899555432947</v>
       </c>
       <c r="E14" s="4">
         <f>$M$5/absolut!E14*100</f>
-        <v>90.375301296345071</v>
+        <v>99.10757542477036</v>
       </c>
       <c r="F14" s="4">
         <f>$L$5/absolut!F14*100</f>
-        <v>120.75281928916523</v>
+        <v>114.08593207229161</v>
       </c>
       <c r="G14" s="4">
         <f>$M$5/absolut!G14*100</f>
-        <v>89.050885398246606</v>
+        <v>98.152895192211503</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -935,19 +941,19 @@
       </c>
       <c r="D15" s="4">
         <f>$L$6/absolut!D15*100</f>
-        <v>120.09996793759153</v>
+        <v>75.283540887464667</v>
       </c>
       <c r="E15" s="4">
         <f>$M$6/absolut!E15*100</f>
-        <v>50.731211468047199</v>
+        <v>53.606067337368614</v>
       </c>
       <c r="F15" s="4">
         <f>$L$6/absolut!F15*100</f>
-        <v>120.09996793759159</v>
+        <v>75.283540887464667</v>
       </c>
       <c r="G15" s="4">
         <f>$M$6/absolut!G15*100</f>
-        <v>49.540020833944723</v>
+        <v>54.045243711550839</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1085,19 +1091,19 @@
       </c>
       <c r="D22" s="4">
         <f>$L$22/absolut!D22*100</f>
-        <v>84.366681202734298</v>
+        <v>62.073251892177595</v>
       </c>
       <c r="E22" s="4">
         <f>$M$22/absolut!E22*100</f>
-        <v>87.355031009956335</v>
+        <v>85.41746337299378</v>
       </c>
       <c r="F22" s="4">
         <f>$L$22/absolut!F22*100</f>
-        <v>86.981744549149752</v>
+        <v>89.387828586157923</v>
       </c>
       <c r="G22" s="4">
         <f>$M$22/absolut!G22*100</f>
-        <v>88.046554528637557</v>
+        <v>95.837947425229146</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
@@ -1125,19 +1131,19 @@
       </c>
       <c r="D23" s="4">
         <f>$L$23/absolut!D23*100</f>
-        <v>83.589254050328137</v>
+        <v>62.26866104106611</v>
       </c>
       <c r="E23" s="4">
         <f>$M$23/absolut!E23*100</f>
-        <v>116.950417168321</v>
+        <v>133.06582392281351</v>
       </c>
       <c r="F23" s="4">
         <f>$L$23/absolut!F23*100</f>
-        <v>86.180219954225066</v>
+        <v>99.516043141069176</v>
       </c>
       <c r="G23" s="4">
         <f>$M$23/absolut!G23*100</f>
-        <v>105.07756731434617</v>
+        <v>75.48289862796473</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="4">
@@ -1165,19 +1171,19 @@
       </c>
       <c r="D24" s="4">
         <f>$L$24/absolut!D24*100</f>
-        <v>126.48936974315134</v>
+        <v>110.16084062728955</v>
       </c>
       <c r="E24" s="4">
         <f>$M$24/absolut!E24*100</f>
-        <v>107.76359808461082</v>
+        <v>101.71965262045457</v>
       </c>
       <c r="F24" s="4">
         <f>$L$24/absolut!F24*100</f>
-        <v>118.99801896353675</v>
+        <v>108.26438856892192</v>
       </c>
       <c r="G24" s="4">
         <f>$M$24/absolut!G24*100</f>
-        <v>96.417772962499001</v>
+        <v>83.276805327724603</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="4">
@@ -1233,19 +1239,19 @@
       </c>
       <c r="D26" s="4">
         <f>$L$22/absolut!D26*100</f>
-        <v>146.15027593477342</v>
+        <v>62.073251892177595</v>
       </c>
       <c r="E26" s="4">
         <f>$M$22/absolut!E26*100</f>
-        <v>127.06207890948427</v>
+        <v>85.41746337299378</v>
       </c>
       <c r="F26" s="4">
         <f>$L$22/absolut!F26*100</f>
-        <v>86.981744549149752</v>
+        <v>89.387828586157923</v>
       </c>
       <c r="G26" s="4">
         <f>$M$22/absolut!G26*100</f>
-        <v>88.046554528637557</v>
+        <v>95.837947425229146</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1263,19 +1269,19 @@
       </c>
       <c r="D27" s="4">
         <f>$L$23/absolut!D27*100</f>
-        <v>144.80352160920856</v>
+        <v>62.26866104106611</v>
       </c>
       <c r="E27" s="4">
         <f>$M$23/absolut!E27*100</f>
-        <v>68.803269242169179</v>
+        <v>133.06582392281351</v>
       </c>
       <c r="F27" s="4">
         <f>$L$23/absolut!F27*100</f>
-        <v>86.180219954225066</v>
+        <v>99.516043141069176</v>
       </c>
       <c r="G27" s="4">
         <f>$M$23/absolut!G27*100</f>
-        <v>105.07756731434617</v>
+        <v>75.48289862796473</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1293,19 +1299,19 @@
       </c>
       <c r="D28" s="4">
         <f>$L$24/absolut!D28*100</f>
-        <v>306.55707058239147</v>
+        <v>110.16084062728955</v>
       </c>
       <c r="E28" s="4">
         <f>$M$24/absolut!E28*100</f>
-        <v>108.47157912507137</v>
+        <v>101.71965262045457</v>
       </c>
       <c r="F28" s="4">
         <f>$L$24/absolut!F28*100</f>
-        <v>118.99801896353675</v>
+        <v>108.26438856892192</v>
       </c>
       <c r="G28" s="4">
         <f>$M$24/absolut!G28*100</f>
-        <v>96.417772962499001</v>
+        <v>83.276805327724603</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1397,19 +1403,19 @@
       </c>
       <c r="D32" s="4">
         <f>$L$22/absolut!D32*100</f>
-        <v>412.61279507547846</v>
+        <v>113.98848475665757</v>
       </c>
       <c r="E32" s="4">
         <f>$M$22/absolut!E32*100</f>
-        <v>216.68028713495778</v>
+        <v>101.78570051557773</v>
       </c>
       <c r="F32" s="4">
         <f>$L$22/absolut!F32*100</f>
-        <v>92.457556377917811</v>
+        <v>113.9884847566576</v>
       </c>
       <c r="G32" s="4">
         <f>$M$22/absolut!G32*100</f>
-        <v>116.61399482246804</v>
+        <v>101.76091175074467</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1427,19 +1433,19 @@
       </c>
       <c r="D33" s="4">
         <f>$L$23/absolut!D33*100</f>
-        <v>179.29953532185255</v>
+        <v>114.34732519292281</v>
       </c>
       <c r="E33" s="4">
         <f>$M$23/absolut!E33*100</f>
-        <v>57.59514853990332</v>
+        <v>103.7120637650754</v>
       </c>
       <c r="F33" s="4">
         <f>$L$23/absolut!F33*100</f>
-        <v>136.22751259990753</v>
+        <v>114.34732519292281</v>
       </c>
       <c r="G33" s="4">
         <f>$M$23/absolut!G33*100</f>
-        <v>78.060768878904781</v>
+        <v>103.7120637650754</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1457,19 +1463,19 @@
       </c>
       <c r="D34" s="4">
         <f>$L$24/absolut!D34*100</f>
-        <v>105.32006953480601</v>
+        <v>76.498576115660072</v>
       </c>
       <c r="E34" s="4">
         <f>$M$24/absolut!E34*100</f>
-        <v>50.114270949510519</v>
+        <v>86.119692474224181</v>
       </c>
       <c r="F34" s="4">
         <f>$L$24/absolut!F34*100</f>
-        <v>105.32006953480601</v>
+        <v>76.498576115660072</v>
       </c>
       <c r="G34" s="4">
         <f>$M$24/absolut!G34*100</f>
-        <v>49.398749892913244</v>
+        <v>85.570084642316303</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1528,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB2ACD8-0A1F-4239-A3F7-5D8380960D13}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1628,16 +1634,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.4660427474961361E-3</v>
+        <v>2.9583665618994931E-3</v>
       </c>
       <c r="E4">
-        <v>0.33039476275551782</v>
+        <v>0.4314881750747997</v>
       </c>
       <c r="F4">
-        <v>1.7626738687320949E-3</v>
+        <v>1.9165124293185299E-3</v>
       </c>
       <c r="G4">
-        <v>0.19550442775409141</v>
+        <v>0.22086502669545791</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4">
@@ -1662,16 +1668,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>7.400446943409124E-3</v>
+        <v>8.2415177630682911E-3</v>
       </c>
       <c r="E5">
-        <v>0.64733662600416642</v>
+        <v>0.54980550062417044</v>
       </c>
       <c r="F5">
-        <v>6.549819849583533E-3</v>
+        <v>6.626775671996335E-3</v>
       </c>
       <c r="G5">
-        <v>0.87536252041541651</v>
+        <v>0.89140640312641017</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5">
@@ -1696,16 +1702,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>9.6129886560527691E-2</v>
+        <v>0.130353828973573</v>
       </c>
       <c r="E6">
-        <v>5.0426535066065453E-2</v>
+        <v>4.7879841012607859E-2</v>
       </c>
       <c r="F6">
-        <v>0.122720076811246</v>
+        <v>0.14466833238158541</v>
       </c>
       <c r="G6">
-        <v>5.4391444834586307E-2</v>
+        <v>5.0959051860008361E-2</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6">
@@ -1730,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.15195523218213769</v>
+        <v>0.1910026074596459</v>
       </c>
       <c r="E7">
-        <v>3.8077307906776041E-2</v>
+        <v>3.475941023606554E-2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1752,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>9.284784882846775E-4</v>
+        <v>2.9583665618994931E-3</v>
       </c>
       <c r="E8">
-        <v>0.10710408755904299</v>
+        <v>0.4314881750747997</v>
       </c>
       <c r="F8">
-        <v>1.7626738687320949E-3</v>
+        <v>1.9165124293185299E-3</v>
       </c>
       <c r="G8">
-        <v>0.19550442775409141</v>
+        <v>0.22086502669545791</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1778,16 +1784,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5.9766511773950868E-3</v>
+        <v>8.2415177630682911E-3</v>
       </c>
       <c r="E9">
-        <v>0.78297931760380357</v>
+        <v>0.54980550062417044</v>
       </c>
       <c r="F9">
-        <v>6.549819849583533E-3</v>
+        <v>6.626775671996335E-3</v>
       </c>
       <c r="G9">
-        <v>0.87536252041541651</v>
+        <v>0.89140640312641017</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1804,16 +1810,16 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>3.7893610059913749E-2</v>
+        <v>0.130353828973573</v>
       </c>
       <c r="E10">
-        <v>6.3654437808168041E-2</v>
+        <v>4.7879841012607859E-2</v>
       </c>
       <c r="F10">
-        <v>0.122720076811246</v>
+        <v>0.14466833238158541</v>
       </c>
       <c r="G10">
-        <v>5.4391444834586307E-2</v>
+        <v>5.0959051860008361E-2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1830,10 +1836,10 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>0.138657770471422</v>
+        <v>0.1910026074596459</v>
       </c>
       <c r="E11">
-        <v>3.4443887749228519E-2</v>
+        <v>3.475941023606554E-2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1848,12 +1854,6 @@
       <c r="B12" s="7"/>
       <c r="C12" s="6">
         <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0.19398709841939801</v>
-      </c>
-      <c r="E12">
-        <v>1.3554534919491065E-2</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1874,16 +1874,16 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.3990351767510919E-4</v>
+        <v>8.4733626044853011E-4</v>
       </c>
       <c r="E13">
-        <v>6.6863921420714498E-2</v>
+        <v>0.14690428482304824</v>
       </c>
       <c r="F13">
-        <v>1.3569738726230699E-4</v>
+        <v>8.4733626044853011E-4</v>
       </c>
       <c r="G13">
-        <v>6.2395652717977278E-2</v>
+        <v>0.14526614972371041</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1900,16 +1900,16 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>5.7969661008387642E-3</v>
+        <v>6.2422531657229056E-3</v>
       </c>
       <c r="E14">
-        <v>0.82987275200412658</v>
+        <v>0.7567534537955708</v>
       </c>
       <c r="F14">
-        <v>5.7969661008387633E-3</v>
+        <v>6.1357258277597148E-3</v>
       </c>
       <c r="G14">
-        <v>0.84221509606098466</v>
+        <v>0.76411398617563442</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1926,16 +1926,16 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>0.1665279378791571</v>
+        <v>0.26566231827347758</v>
       </c>
       <c r="E15">
-        <v>9.8558655614783136E-2</v>
+        <v>9.3273023901056004E-2</v>
       </c>
       <c r="F15">
-        <v>0.16652793787915701</v>
+        <v>0.26566231827347758</v>
       </c>
       <c r="G15">
-        <v>0.10092850014657261</v>
+        <v>9.2515079156380478E-2</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1952,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>0.16152135737471721</v>
+        <v>0.26566231827347758</v>
       </c>
       <c r="E16">
-        <v>8.3709700826493469E-2</v>
+        <v>9.465329387860727E-2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1965,7 +1965,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1981,7 +1981,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
@@ -1999,7 +1999,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2023,7 +2023,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
@@ -2057,25 +2057,25 @@
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1.185302047851078E-3</v>
+        <v>1.61099985825943E-3</v>
       </c>
       <c r="E22">
-        <v>0.68685225460181532</v>
+        <v>0.70243247259634778</v>
       </c>
       <c r="F22">
-        <v>1.149666525066006E-3</v>
+        <v>1.1187205415065359E-3</v>
       </c>
       <c r="G22">
-        <v>0.68145767112879718</v>
+        <v>0.62605681373561139</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22">
@@ -2092,24 +2092,33 @@
         <v>0.6</v>
       </c>
       <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>1.61099985825943E-3</v>
+      </c>
+      <c r="Q22">
+        <v>0.70243247259634778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>7.1779561477931936E-3</v>
+        <v>9.635665677864837E-3</v>
       </c>
       <c r="E23">
-        <v>0.2565189652707478</v>
+        <v>0.22545232964853451</v>
       </c>
       <c r="F23">
-        <v>6.9621544284604077E-3</v>
+        <v>6.0291786234855493E-3</v>
       </c>
       <c r="G23">
-        <v>0.28550337400040016</v>
+        <v>0.39744101704231144</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23">
@@ -2126,24 +2135,30 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P23">
+        <v>9.635665677864837E-3</v>
+      </c>
+      <c r="Q23">
+        <v>0.22545232964853451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>0.13044574444085549</v>
+        <v>0.1497809921024926</v>
       </c>
       <c r="E24">
-        <v>9.2795713745085592E-2</v>
+        <v>9.8309419491559719E-2</v>
       </c>
       <c r="F24">
-        <v>0.138657770471422</v>
+        <v>0.15240468466226989</v>
       </c>
       <c r="G24">
-        <v>0.10371531816949794</v>
+        <v>0.12008145558233596</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24">
@@ -2160,18 +2175,24 @@
         <v>0.1</v>
       </c>
       <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P24">
+        <v>0.1497809921024926</v>
+      </c>
+      <c r="Q24">
+        <v>9.8309419491559719E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>0.16402464762693714</v>
+        <v>0.20474143893734029</v>
       </c>
       <c r="E25">
-        <v>8.5075205497019052E-2</v>
+        <v>8.6955321020121823E-2</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2180,8 +2201,14 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P25">
+        <v>0.20474143893734029</v>
+      </c>
+      <c r="Q25">
+        <v>8.6955321020121823E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="8" t="s">
         <v>7</v>
@@ -2190,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>6.8422724049203854E-4</v>
+        <v>1.61099985825943E-3</v>
       </c>
       <c r="E26">
-        <v>0.47221012370451171</v>
+        <v>0.70243247259634778</v>
       </c>
       <c r="F26">
-        <v>1.149666525066006E-3</v>
+        <v>1.1187205415065359E-3</v>
       </c>
       <c r="G26">
-        <v>0.68145767112879718</v>
+        <v>0.62605681373561139</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2208,24 +2235,30 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P26">
+        <v>0.21197711581854251</v>
+      </c>
+      <c r="Q26">
+        <v>6.8839707399211775E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>4.1435456357150086E-3</v>
+        <v>9.635665677864837E-3</v>
       </c>
       <c r="E27">
-        <v>0.43602579253040996</v>
+        <v>0.22545232964853451</v>
       </c>
       <c r="F27">
-        <v>6.9621544284604077E-3</v>
+        <v>6.0291786234855493E-3</v>
       </c>
       <c r="G27">
-        <v>0.28550337400040016</v>
+        <v>0.39744101704231144</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2235,23 +2268,23 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>5.3823583219442972E-2</v>
+        <v>0.1497809921024926</v>
       </c>
       <c r="E28">
-        <v>9.2190047205541886E-2</v>
+        <v>9.8309419491559719E-2</v>
       </c>
       <c r="F28">
-        <v>0.138657770471422</v>
+        <v>0.15240468466226989</v>
       </c>
       <c r="G28">
-        <v>0.10371531816949794</v>
+        <v>0.12008145558233596</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2261,17 +2294,17 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>0.17168970435252909</v>
+        <v>0.20474143893734029</v>
       </c>
       <c r="E29">
-        <v>6.4267458635436037E-2</v>
+        <v>8.6955321020121823E-2</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2281,17 +2314,17 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>0.19398709841939801</v>
+        <v>0.21197711581854251</v>
       </c>
       <c r="E30">
-        <v>2.243589780687992E-2</v>
+        <v>6.8839707399211775E-2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2301,17 +2334,11 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6">
         <v>6</v>
-      </c>
-      <c r="D31">
-        <v>0.19398709841939801</v>
-      </c>
-      <c r="E31">
-        <v>2.097187165219656E-2</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2323,7 +2350,7 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
         <v>3</v>
@@ -2332,16 +2359,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2.423579714286543E-4</v>
+        <v>8.7728159746556708E-4</v>
       </c>
       <c r="E32">
-        <v>0.2769056696081883</v>
+        <v>0.58947376395780982</v>
       </c>
       <c r="F32">
-        <v>1.0815773628198939E-3</v>
+        <v>8.7728159746556698E-4</v>
       </c>
       <c r="G32">
-        <v>0.51451800524751246</v>
+        <v>0.58961735864715192</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2358,16 +2385,16 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3.3463555771238722E-3</v>
+        <v>5.2471712739034426E-3</v>
       </c>
       <c r="E33">
-        <v>0.52087720512110969</v>
+        <v>0.28926239543313736</v>
       </c>
       <c r="F33">
-        <v>4.4043966490246791E-3</v>
+        <v>5.2471712739034426E-3</v>
       </c>
       <c r="G33">
-        <v>0.38431596858261574</v>
+        <v>0.28926239543313736</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2384,16 +2411,16 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0.1566652972494203</v>
+        <v>0.2156902891245093</v>
       </c>
       <c r="E34">
-        <v>0.19954395844798126</v>
+        <v>0.11611746062601215</v>
       </c>
       <c r="F34">
-        <v>0.1566652972494203</v>
+        <v>0.2156902891245093</v>
       </c>
       <c r="G34">
-        <v>0.20243427256110791</v>
+        <v>0.11686327110461661</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2410,10 +2437,10 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>0.1566652972494203</v>
+        <v>0.26108886143117699</v>
       </c>
       <c r="E35">
-        <v>0.19833030845553501</v>
+        <v>0.10304111241787529</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
